--- a/src/demo/zxxt_02_excel_xlsx.w3mi.data.xlsx
+++ b/src/demo/zxxt_02_excel_xlsx.w3mi.data.xlsx
@@ -1,29 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moldab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40503C2F-DE9D-4C26-8C94-FBD3E98B7B15}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8460"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NoGroup" sheetId="2" r:id="rId1"/>
+    <sheet name="ExcelTable" sheetId="4" r:id="rId2"/>
+    <sheet name="SimpleTree" sheetId="6" r:id="rId3"/>
+    <sheet name="Tree3" sheetId="7" r:id="rId4"/>
+    <sheet name="PrintArea (8 rows)" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$9</definedName>
+    <definedName name="E_">Tree3!$E$6</definedName>
+    <definedName name="F_">SimpleTree!$F$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'PrintArea (8 rows)'!$A$1:$E$8</definedName>
+    <definedName name="RANGE_SUM1">SimpleTree!$E$5</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
   <si>
     <t>Basic table example</t>
   </si>
@@ -37,12 +43,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>SUM1</t>
-  </si>
-  <si>
-    <t>SUM2</t>
-  </si>
-  <si>
     <t>{R-T-CAPTION}</t>
   </si>
   <si>
@@ -59,13 +59,61 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>{R-TITLE}</t>
+  </si>
+  <si>
+    <t>SUM 1</t>
+  </si>
+  <si>
+    <t>SUM 2</t>
+  </si>
+  <si>
+    <t>{R-T;group=}</t>
+  </si>
+  <si>
+    <t>{R-T;level=1}</t>
+  </si>
+  <si>
+    <t>{R-T;level=0}</t>
+  </si>
+  <si>
+    <t>Easy way</t>
+  </si>
+  <si>
+    <t>Watch Formula</t>
+  </si>
+  <si>
+    <t>{R-T-SUM1;func=SUM}</t>
+  </si>
+  <si>
+    <t>{R-T-SUM2;func=SUM}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{R-T;group=GROUP}</t>
+  </si>
+  <si>
+    <t>{R-T;level=2}</t>
+  </si>
+  <si>
+    <t>{R-T-SUM2;func=AVG}</t>
+  </si>
+  <si>
+    <t>Sums by group {R-T-GROUP;func=FIRST}</t>
+  </si>
+  <si>
+    <t>Average by all groups</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -224,8 +272,24 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,8 +469,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -522,6 +598,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -529,16 +644,9 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <bottom style="medium">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -549,20 +657,11 @@
         <color auto="1"/>
       </right>
       <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -610,43 +709,86 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -693,34 +835,10 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -732,31 +850,8 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -764,41 +859,15 @@
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
+        <top/>
         <bottom/>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -810,30 +879,7 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -842,41 +888,15 @@
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
+        <top/>
         <bottom/>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -888,30 +908,7 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -920,39 +917,14 @@
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
+        <top/>
         <bottom/>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -965,30 +937,7 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -996,38 +945,13 @@
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
+        <top/>
         <bottom/>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1041,29 +965,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1072,9 +973,7 @@
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
+        <top/>
         <bottom/>
         <vertical/>
         <horizontal/>
@@ -1091,56 +990,17 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color auto="1"/>
@@ -1166,16 +1026,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:E5" totalsRowCount="1" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A3:E4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:F6" totalsRowCount="1" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="B4:F5"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Caption" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Group" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Date" dataDxfId="1" totalsRowDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="SUM1" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SUM2" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="1" name="Caption" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" name="Group" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="3" name="Date" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="4" name="SUM 1" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="5" name="SUM 2" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1475,84 +1335,436 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="6" width="33.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="6" width="33.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14">
+        <f>SUBTOTAL(109,Table1[SUM 1])</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <f>SUBTOTAL(109,Table1[SUM 2])</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="6" width="33.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="22">
+        <f>SUM(RANGE_SUM1)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="22">
+        <f>SUM(F_)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="6" width="33.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:6" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31" t="e">
+        <f>AVERAGE(E_)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="11" customWidth="1"/>
-    <col min="4" max="5" width="16.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="10">
-        <f>SUBTOTAL(109,Table2[SUM1])</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
-        <f>SUBTOTAL(109,Table2[SUM2])</f>
-        <v>0</v>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:E4" xr:uid="{06600906-E9B7-4EBE-BC11-F86CBDFBC778}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:E4">
       <formula1>0</formula1>
       <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{8C9B6755-B171-4A99-BC56-60A16E28DCAA}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
       <formula1>NOW()-3</formula1>
       <formula2>NOW()+3</formula2>
     </dataValidation>
@@ -1564,8 +1776,5 @@
     <oddFooter>&amp;C{R-FOOTER}
 Date &amp; time: {R-DATETIME;type=datetime}</oddFooter>
   </headerFooter>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/src/demo/zxxt_02_excel_xlsx.w3mi.data.xlsx
+++ b/src/demo/zxxt_02_excel_xlsx.w3mi.data.xlsx
@@ -5,31 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moldab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MoldaB\AppData\Local\SAP\SAP GUI\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8460" tabRatio="800"/>
   </bookViews>
   <sheets>
     <sheet name="NoGroup" sheetId="2" r:id="rId1"/>
     <sheet name="ExcelTable" sheetId="4" r:id="rId2"/>
-    <sheet name="SimpleTree" sheetId="6" r:id="rId3"/>
-    <sheet name="Tree3" sheetId="7" r:id="rId4"/>
-    <sheet name="PrintArea (8 rows)" sheetId="1" r:id="rId5"/>
+    <sheet name="Pivot based on ExcelTable" sheetId="8" r:id="rId3"/>
+    <sheet name="SimpleTree" sheetId="6" r:id="rId4"/>
+    <sheet name="Tree3" sheetId="7" r:id="rId5"/>
+    <sheet name="PrintArea (8 rows)" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="E_">Tree3!$E$6</definedName>
     <definedName name="F_">SimpleTree!$F$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'PrintArea (8 rows)'!$A$1:$E$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'PrintArea (8 rows)'!$A$1:$E$8</definedName>
     <definedName name="RANGE_SUM1">SimpleTree!$E$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="20" r:id="rId7"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
   <si>
     <t>Basic table example</t>
   </si>
@@ -107,6 +111,36 @@
   </si>
   <si>
     <t>Average by all groups</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of SUM 1</t>
+  </si>
+  <si>
+    <t>Count of SUM 2</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Total Count of SUM 1</t>
+  </si>
+  <si>
+    <t>Total Count of SUM 2</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>01-Jan</t>
   </si>
 </sst>
 </file>
@@ -709,7 +743,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -790,6 +824,14 @@
     <xf numFmtId="4" fontId="19" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -837,7 +879,61 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -866,19 +962,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -892,19 +975,6 @@
         <bottom/>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -925,19 +995,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -949,19 +1006,6 @@
         <bottom/>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1025,15 +1069,1934 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[ZXXT_02_EXCEL.xlsx]Pivot based on ExcelTable!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot based on ExcelTable'!$B$3:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Groups - Count of SUM 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Pivot based on ExcelTable'!$A$6:$A$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="1"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>01-Jan</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot based on ExcelTable'!$B$6:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A4A9-4F24-8763-630809F56EFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot based on ExcelTable'!$C$3:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Groups - Count of SUM 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Pivot based on ExcelTable'!$A$6:$A$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="1"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>01-Jan</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot based on ExcelTable'!$C$6:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A4A9-4F24-8763-630809F56EFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="294297368"/>
+        <c:axId val="294296384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="294297368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="294296384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="294296384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="294297368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshOnLoad="1" refreshedBy="Moldabayev, Birzhan" refreshedDate="44013.699615740741" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Caption" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Group" numFmtId="0">
+      <sharedItems count="1">
+        <s v="{R-T-GROUP}"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-01-01T00:00:00" maxDate="2020-01-02T00:00:00" count="1">
+        <d v="2020-01-01T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="5" base="2">
+        <rangePr groupBy="days" startDate="2020-01-01T00:00:00" endDate="2020-01-02T00:00:00"/>
+        <groupItems count="368">
+          <s v="&lt;01/01/2020"/>
+          <s v="01-Jan"/>
+          <s v="02-Jan"/>
+          <s v="03-Jan"/>
+          <s v="04-Jan"/>
+          <s v="05-Jan"/>
+          <s v="06-Jan"/>
+          <s v="07-Jan"/>
+          <s v="08-Jan"/>
+          <s v="09-Jan"/>
+          <s v="10-Jan"/>
+          <s v="11-Jan"/>
+          <s v="12-Jan"/>
+          <s v="13-Jan"/>
+          <s v="14-Jan"/>
+          <s v="15-Jan"/>
+          <s v="16-Jan"/>
+          <s v="17-Jan"/>
+          <s v="18-Jan"/>
+          <s v="19-Jan"/>
+          <s v="20-Jan"/>
+          <s v="21-Jan"/>
+          <s v="22-Jan"/>
+          <s v="23-Jan"/>
+          <s v="24-Jan"/>
+          <s v="25-Jan"/>
+          <s v="26-Jan"/>
+          <s v="27-Jan"/>
+          <s v="28-Jan"/>
+          <s v="29-Jan"/>
+          <s v="30-Jan"/>
+          <s v="31-Jan"/>
+          <s v="01-Feb"/>
+          <s v="02-Feb"/>
+          <s v="03-Feb"/>
+          <s v="04-Feb"/>
+          <s v="05-Feb"/>
+          <s v="06-Feb"/>
+          <s v="07-Feb"/>
+          <s v="08-Feb"/>
+          <s v="09-Feb"/>
+          <s v="10-Feb"/>
+          <s v="11-Feb"/>
+          <s v="12-Feb"/>
+          <s v="13-Feb"/>
+          <s v="14-Feb"/>
+          <s v="15-Feb"/>
+          <s v="16-Feb"/>
+          <s v="17-Feb"/>
+          <s v="18-Feb"/>
+          <s v="19-Feb"/>
+          <s v="20-Feb"/>
+          <s v="21-Feb"/>
+          <s v="22-Feb"/>
+          <s v="23-Feb"/>
+          <s v="24-Feb"/>
+          <s v="25-Feb"/>
+          <s v="26-Feb"/>
+          <s v="27-Feb"/>
+          <s v="28-Feb"/>
+          <s v="29-Feb"/>
+          <s v="01-Mar"/>
+          <s v="02-Mar"/>
+          <s v="03-Mar"/>
+          <s v="04-Mar"/>
+          <s v="05-Mar"/>
+          <s v="06-Mar"/>
+          <s v="07-Mar"/>
+          <s v="08-Mar"/>
+          <s v="09-Mar"/>
+          <s v="10-Mar"/>
+          <s v="11-Mar"/>
+          <s v="12-Mar"/>
+          <s v="13-Mar"/>
+          <s v="14-Mar"/>
+          <s v="15-Mar"/>
+          <s v="16-Mar"/>
+          <s v="17-Mar"/>
+          <s v="18-Mar"/>
+          <s v="19-Mar"/>
+          <s v="20-Mar"/>
+          <s v="21-Mar"/>
+          <s v="22-Mar"/>
+          <s v="23-Mar"/>
+          <s v="24-Mar"/>
+          <s v="25-Mar"/>
+          <s v="26-Mar"/>
+          <s v="27-Mar"/>
+          <s v="28-Mar"/>
+          <s v="29-Mar"/>
+          <s v="30-Mar"/>
+          <s v="31-Mar"/>
+          <s v="01-Apr"/>
+          <s v="02-Apr"/>
+          <s v="03-Apr"/>
+          <s v="04-Apr"/>
+          <s v="05-Apr"/>
+          <s v="06-Apr"/>
+          <s v="07-Apr"/>
+          <s v="08-Apr"/>
+          <s v="09-Apr"/>
+          <s v="10-Apr"/>
+          <s v="11-Apr"/>
+          <s v="12-Apr"/>
+          <s v="13-Apr"/>
+          <s v="14-Apr"/>
+          <s v="15-Apr"/>
+          <s v="16-Apr"/>
+          <s v="17-Apr"/>
+          <s v="18-Apr"/>
+          <s v="19-Apr"/>
+          <s v="20-Apr"/>
+          <s v="21-Apr"/>
+          <s v="22-Apr"/>
+          <s v="23-Apr"/>
+          <s v="24-Apr"/>
+          <s v="25-Apr"/>
+          <s v="26-Apr"/>
+          <s v="27-Apr"/>
+          <s v="28-Apr"/>
+          <s v="29-Apr"/>
+          <s v="30-Apr"/>
+          <s v="01-May"/>
+          <s v="02-May"/>
+          <s v="03-May"/>
+          <s v="04-May"/>
+          <s v="05-May"/>
+          <s v="06-May"/>
+          <s v="07-May"/>
+          <s v="08-May"/>
+          <s v="09-May"/>
+          <s v="10-May"/>
+          <s v="11-May"/>
+          <s v="12-May"/>
+          <s v="13-May"/>
+          <s v="14-May"/>
+          <s v="15-May"/>
+          <s v="16-May"/>
+          <s v="17-May"/>
+          <s v="18-May"/>
+          <s v="19-May"/>
+          <s v="20-May"/>
+          <s v="21-May"/>
+          <s v="22-May"/>
+          <s v="23-May"/>
+          <s v="24-May"/>
+          <s v="25-May"/>
+          <s v="26-May"/>
+          <s v="27-May"/>
+          <s v="28-May"/>
+          <s v="29-May"/>
+          <s v="30-May"/>
+          <s v="31-May"/>
+          <s v="01-Jun"/>
+          <s v="02-Jun"/>
+          <s v="03-Jun"/>
+          <s v="04-Jun"/>
+          <s v="05-Jun"/>
+          <s v="06-Jun"/>
+          <s v="07-Jun"/>
+          <s v="08-Jun"/>
+          <s v="09-Jun"/>
+          <s v="10-Jun"/>
+          <s v="11-Jun"/>
+          <s v="12-Jun"/>
+          <s v="13-Jun"/>
+          <s v="14-Jun"/>
+          <s v="15-Jun"/>
+          <s v="16-Jun"/>
+          <s v="17-Jun"/>
+          <s v="18-Jun"/>
+          <s v="19-Jun"/>
+          <s v="20-Jun"/>
+          <s v="21-Jun"/>
+          <s v="22-Jun"/>
+          <s v="23-Jun"/>
+          <s v="24-Jun"/>
+          <s v="25-Jun"/>
+          <s v="26-Jun"/>
+          <s v="27-Jun"/>
+          <s v="28-Jun"/>
+          <s v="29-Jun"/>
+          <s v="30-Jun"/>
+          <s v="01-Jul"/>
+          <s v="02-Jul"/>
+          <s v="03-Jul"/>
+          <s v="04-Jul"/>
+          <s v="05-Jul"/>
+          <s v="06-Jul"/>
+          <s v="07-Jul"/>
+          <s v="08-Jul"/>
+          <s v="09-Jul"/>
+          <s v="10-Jul"/>
+          <s v="11-Jul"/>
+          <s v="12-Jul"/>
+          <s v="13-Jul"/>
+          <s v="14-Jul"/>
+          <s v="15-Jul"/>
+          <s v="16-Jul"/>
+          <s v="17-Jul"/>
+          <s v="18-Jul"/>
+          <s v="19-Jul"/>
+          <s v="20-Jul"/>
+          <s v="21-Jul"/>
+          <s v="22-Jul"/>
+          <s v="23-Jul"/>
+          <s v="24-Jul"/>
+          <s v="25-Jul"/>
+          <s v="26-Jul"/>
+          <s v="27-Jul"/>
+          <s v="28-Jul"/>
+          <s v="29-Jul"/>
+          <s v="30-Jul"/>
+          <s v="31-Jul"/>
+          <s v="01-Aug"/>
+          <s v="02-Aug"/>
+          <s v="03-Aug"/>
+          <s v="04-Aug"/>
+          <s v="05-Aug"/>
+          <s v="06-Aug"/>
+          <s v="07-Aug"/>
+          <s v="08-Aug"/>
+          <s v="09-Aug"/>
+          <s v="10-Aug"/>
+          <s v="11-Aug"/>
+          <s v="12-Aug"/>
+          <s v="13-Aug"/>
+          <s v="14-Aug"/>
+          <s v="15-Aug"/>
+          <s v="16-Aug"/>
+          <s v="17-Aug"/>
+          <s v="18-Aug"/>
+          <s v="19-Aug"/>
+          <s v="20-Aug"/>
+          <s v="21-Aug"/>
+          <s v="22-Aug"/>
+          <s v="23-Aug"/>
+          <s v="24-Aug"/>
+          <s v="25-Aug"/>
+          <s v="26-Aug"/>
+          <s v="27-Aug"/>
+          <s v="28-Aug"/>
+          <s v="29-Aug"/>
+          <s v="30-Aug"/>
+          <s v="31-Aug"/>
+          <s v="01-Sep"/>
+          <s v="02-Sep"/>
+          <s v="03-Sep"/>
+          <s v="04-Sep"/>
+          <s v="05-Sep"/>
+          <s v="06-Sep"/>
+          <s v="07-Sep"/>
+          <s v="08-Sep"/>
+          <s v="09-Sep"/>
+          <s v="10-Sep"/>
+          <s v="11-Sep"/>
+          <s v="12-Sep"/>
+          <s v="13-Sep"/>
+          <s v="14-Sep"/>
+          <s v="15-Sep"/>
+          <s v="16-Sep"/>
+          <s v="17-Sep"/>
+          <s v="18-Sep"/>
+          <s v="19-Sep"/>
+          <s v="20-Sep"/>
+          <s v="21-Sep"/>
+          <s v="22-Sep"/>
+          <s v="23-Sep"/>
+          <s v="24-Sep"/>
+          <s v="25-Sep"/>
+          <s v="26-Sep"/>
+          <s v="27-Sep"/>
+          <s v="28-Sep"/>
+          <s v="29-Sep"/>
+          <s v="30-Sep"/>
+          <s v="01-Oct"/>
+          <s v="02-Oct"/>
+          <s v="03-Oct"/>
+          <s v="04-Oct"/>
+          <s v="05-Oct"/>
+          <s v="06-Oct"/>
+          <s v="07-Oct"/>
+          <s v="08-Oct"/>
+          <s v="09-Oct"/>
+          <s v="10-Oct"/>
+          <s v="11-Oct"/>
+          <s v="12-Oct"/>
+          <s v="13-Oct"/>
+          <s v="14-Oct"/>
+          <s v="15-Oct"/>
+          <s v="16-Oct"/>
+          <s v="17-Oct"/>
+          <s v="18-Oct"/>
+          <s v="19-Oct"/>
+          <s v="20-Oct"/>
+          <s v="21-Oct"/>
+          <s v="22-Oct"/>
+          <s v="23-Oct"/>
+          <s v="24-Oct"/>
+          <s v="25-Oct"/>
+          <s v="26-Oct"/>
+          <s v="27-Oct"/>
+          <s v="28-Oct"/>
+          <s v="29-Oct"/>
+          <s v="30-Oct"/>
+          <s v="31-Oct"/>
+          <s v="01-Nov"/>
+          <s v="02-Nov"/>
+          <s v="03-Nov"/>
+          <s v="04-Nov"/>
+          <s v="05-Nov"/>
+          <s v="06-Nov"/>
+          <s v="07-Nov"/>
+          <s v="08-Nov"/>
+          <s v="09-Nov"/>
+          <s v="10-Nov"/>
+          <s v="11-Nov"/>
+          <s v="12-Nov"/>
+          <s v="13-Nov"/>
+          <s v="14-Nov"/>
+          <s v="15-Nov"/>
+          <s v="16-Nov"/>
+          <s v="17-Nov"/>
+          <s v="18-Nov"/>
+          <s v="19-Nov"/>
+          <s v="20-Nov"/>
+          <s v="21-Nov"/>
+          <s v="22-Nov"/>
+          <s v="23-Nov"/>
+          <s v="24-Nov"/>
+          <s v="25-Nov"/>
+          <s v="26-Nov"/>
+          <s v="27-Nov"/>
+          <s v="28-Nov"/>
+          <s v="29-Nov"/>
+          <s v="30-Nov"/>
+          <s v="01-Dec"/>
+          <s v="02-Dec"/>
+          <s v="03-Dec"/>
+          <s v="04-Dec"/>
+          <s v="05-Dec"/>
+          <s v="06-Dec"/>
+          <s v="07-Dec"/>
+          <s v="08-Dec"/>
+          <s v="09-Dec"/>
+          <s v="10-Dec"/>
+          <s v="11-Dec"/>
+          <s v="12-Dec"/>
+          <s v="13-Dec"/>
+          <s v="14-Dec"/>
+          <s v="15-Dec"/>
+          <s v="16-Dec"/>
+          <s v="17-Dec"/>
+          <s v="18-Dec"/>
+          <s v="19-Dec"/>
+          <s v="20-Dec"/>
+          <s v="21-Dec"/>
+          <s v="22-Dec"/>
+          <s v="23-Dec"/>
+          <s v="24-Dec"/>
+          <s v="25-Dec"/>
+          <s v="26-Dec"/>
+          <s v="27-Dec"/>
+          <s v="28-Dec"/>
+          <s v="29-Dec"/>
+          <s v="30-Dec"/>
+          <s v="31-Dec"/>
+          <s v="&gt;02/01/2020"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="SUM 1" numFmtId="4">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="SUM 2" numFmtId="4">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Months" numFmtId="0" databaseField="0">
+      <fieldGroup base="2">
+        <rangePr groupBy="months" startDate="2020-01-01T00:00:00" endDate="2020-01-02T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;01/01/2020"/>
+          <s v="Jan"/>
+          <s v="Feb"/>
+          <s v="Mar"/>
+          <s v="Apr"/>
+          <s v="May"/>
+          <s v="Jun"/>
+          <s v="Jul"/>
+          <s v="Aug"/>
+          <s v="Sep"/>
+          <s v="Oct"/>
+          <s v="Nov"/>
+          <s v="Dec"/>
+          <s v="&gt;02/01/2020"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+  <location ref="A3:E8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item n="Groups" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="5"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of SUM 1" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of SUM 2" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:F6" totalsRowCount="1" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
   <autoFilter ref="B4:F5"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Caption" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="2" name="Group" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="3" name="Date" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="4" name="SUM 1" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="5" name="SUM 2" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Caption" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Group" dataDxfId="8" totalsRowDxfId="3"/>
+    <tableColumn id="3" name="Date" dataDxfId="7" totalsRowDxfId="2"/>
+    <tableColumn id="4" name="SUM 1" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="1"/>
+    <tableColumn id="5" name="SUM 2" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1339,7 +3302,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,7 +3370,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,6 +3451,99 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="34">
+        <v>1</v>
+      </c>
+      <c r="C7" s="34">
+        <v>1</v>
+      </c>
+      <c r="D7" s="34">
+        <v>1</v>
+      </c>
+      <c r="E7" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="34">
+        <v>1</v>
+      </c>
+      <c r="C8" s="34">
+        <v>1</v>
+      </c>
+      <c r="D8" s="34">
+        <v>1</v>
+      </c>
+      <c r="E8" s="34">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -1592,7 +3648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -1696,7 +3752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>

--- a/src/demo/zxxt_02_excel_xlsx.w3mi.data.xlsx
+++ b/src/demo/zxxt_02_excel_xlsx.w3mi.data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MoldaB\AppData\Local\SAP\SAP GUI\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moldab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8460" tabRatio="800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8460" tabRatio="703"/>
   </bookViews>
   <sheets>
     <sheet name="NoGroup" sheetId="2" r:id="rId1"/>
@@ -23,17 +23,18 @@
     <definedName name="E_">Tree3!$E$6</definedName>
     <definedName name="F_">SimpleTree!$F$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'PrintArea (8 rows)'!$A$1:$E$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">NoGroup!$6:$7</definedName>
     <definedName name="RANGE_SUM1">SimpleTree!$E$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId7"/>
+    <pivotCache cacheId="43" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
   <si>
     <t>Basic table example</t>
   </si>
@@ -113,31 +114,31 @@
     <t>Average by all groups</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Count of SUM 1</t>
+    <t>GRP A</t>
   </si>
   <si>
-    <t>Count of SUM 2</t>
+    <t>GRP B</t>
   </si>
   <si>
-    <t>Column Labels</t>
+    <t>GRP C</t>
   </si>
   <si>
-    <t>Total Count of SUM 1</t>
+    <t>GRP D</t>
   </si>
   <si>
-    <t>Total Count of SUM 2</t>
+    <t>(All)</t>
   </si>
   <si>
-    <t>Groups</t>
+    <t>Sum of SUM 1</t>
   </si>
   <si>
-    <t>Jan</t>
+    <t>Sum of SUM 2</t>
+  </si>
+  <si>
+    <t>Months</t>
   </si>
   <si>
     <t>01-Jan</t>
@@ -743,7 +744,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -825,13 +826,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1083,10 +1078,41 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[ZXXT_02_EXCEL.xlsx]Pivot based on ExcelTable!PivotTable1</c:name>
+    <c:name>[ZXXT_02_EXCEL.XLSX]Pivot based on ExcelTable!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -1164,40 +1190,160 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pivot based on ExcelTable'!$B$3:$B$5</c:f>
+              <c:f>'Pivot based on ExcelTable'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Groups - Count of SUM 1</c:v>
+                  <c:v>Sum of SUM 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0E2D-4ACA-B2DD-18EF0C7BC1D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Pivot based on ExcelTable'!$A$6:$A$8</c:f>
+              <c:f>'Pivot based on ExcelTable'!$A$4:$B$5</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="1"/>
                 <c:lvl>
@@ -1207,7 +1353,7 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Jan</c:v>
+                    <c:v>Date</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1215,12 +1361,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot based on ExcelTable'!$B$6:$B$8</c:f>
+              <c:f>'Pivot based on ExcelTable'!$C$4:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1236,28 +1382,36 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pivot based on ExcelTable'!$C$3:$C$5</c:f>
+              <c:f>'Pivot based on ExcelTable'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Groups - Count of SUM 2</c:v>
+                  <c:v>Sum of SUM 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0E2D-4ACA-B2DD-18EF0C7BC1D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Pivot based on ExcelTable'!$A$6:$A$8</c:f>
+              <c:f>'Pivot based on ExcelTable'!$A$4:$B$5</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="1"/>
                 <c:lvl>
@@ -1267,7 +1421,7 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Jan</c:v>
+                    <c:v>Date</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1275,12 +1429,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot based on ExcelTable'!$C$6:$C$8</c:f>
+              <c:f>'Pivot based on ExcelTable'!$D$4:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,119 +1452,10 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="294297368"/>
-        <c:axId val="294296384"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="294297368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="294296384"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="294296384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="294297368"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2083,18 +2128,18 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshOnLoad="1" refreshedBy="Moldabayev, Birzhan" refreshedDate="44013.699615740741" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshOnLoad="1" refreshedBy="Moldabayev, Birzhan" refreshedDate="44019.56553738426" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Caption" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="1">
+        <s v="{R-T-CAPTION}"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Group" numFmtId="0">
-      <sharedItems count="1">
-        <s v="{R-T-GROUP}"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Date" numFmtId="14">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-01-01T00:00:00" maxDate="2020-01-02T00:00:00" count="1">
@@ -2511,17 +2556,17 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
-  <location ref="A3:E8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+  <location ref="A3:D5" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
       <items count="2">
-        <item n="Groups" x="0"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
       <items count="369">
         <item x="0"/>
         <item x="1"/>
@@ -2894,12 +2939,12 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="14">
         <item x="0"/>
-        <item x="1"/>
+        <item n="Date" x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -2919,61 +2964,48 @@
     <field x="5"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="2">
     <i>
       <x v="1"/>
-    </i>
-    <i r="1">
       <x v="1"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="2">
-    <field x="1"/>
+  <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="2">
     <i>
       <x/>
-      <x/>
     </i>
-    <i r="1" i="1">
+    <i i="1">
       <x v="1"/>
     </i>
-    <i t="grand">
-      <x/>
-    </i>
-    <i t="grand" i="1">
-      <x/>
-    </i>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
   <dataFields count="2">
-    <dataField name="Count of SUM 1" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of SUM 2" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of SUM 1" fld="3" baseField="2" baseItem="0"/>
+    <dataField name="Sum of SUM 2" fld="4" baseField="2" baseItem="0"/>
   </dataFields>
   <chartFormats count="2">
-    <chartFormat chart="0" format="3" series="1">
+    <chartFormat chart="0" format="11" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
+    <chartFormat chart="0" format="12" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -3299,10 +3331,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="6" width="33.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+      <formula1>$A$1:$A$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3324,74 +3448,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="6" width="33.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>1</v>
@@ -3452,89 +3508,65 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E8"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>34</v>
+      </c>
       <c r="B3" s="32" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="C4" s="33">
+        <v>0</v>
+      </c>
+      <c r="D4" s="33">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="34">
-        <v>1</v>
-      </c>
-      <c r="C7" s="34">
-        <v>1</v>
-      </c>
-      <c r="D7" s="34">
-        <v>1</v>
-      </c>
-      <c r="E7" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="34">
-        <v>1</v>
-      </c>
-      <c r="C8" s="34">
-        <v>1</v>
-      </c>
-      <c r="D8" s="34">
-        <v>1</v>
-      </c>
-      <c r="E8" s="34">
-        <v>1</v>
+      <c r="C5" s="33">
+        <v>0</v>
+      </c>
+      <c r="D5" s="33">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/demo/zxxt_02_excel_xlsx.w3mi.data.xlsx
+++ b/src/demo/zxxt_02_excel_xlsx.w3mi.data.xlsx
@@ -5,36 +5,37 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moldab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MoldaB\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8460" tabRatio="703"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8460" tabRatio="703" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NoGroup" sheetId="2" r:id="rId1"/>
     <sheet name="ExcelTable" sheetId="4" r:id="rId2"/>
     <sheet name="Pivot based on ExcelTable" sheetId="8" r:id="rId3"/>
-    <sheet name="SimpleTree" sheetId="6" r:id="rId4"/>
-    <sheet name="Tree3" sheetId="7" r:id="rId5"/>
-    <sheet name="PrintArea (8 rows)" sheetId="1" r:id="rId6"/>
+    <sheet name="Formula" sheetId="9" r:id="rId4"/>
+    <sheet name="SimpleTree" sheetId="6" r:id="rId5"/>
+    <sheet name="Tree3" sheetId="7" r:id="rId6"/>
+    <sheet name="PrintArea (8 rows)" sheetId="1" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="E_">Tree3!$E$6</definedName>
     <definedName name="F_">SimpleTree!$F$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'PrintArea (8 rows)'!$A$1:$E$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'PrintArea (8 rows)'!$A$1:$E$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">NoGroup!$6:$7</definedName>
     <definedName name="RANGE_SUM1">SimpleTree!$E$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="43" r:id="rId7"/>
+    <pivotCache cacheId="4" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="36">
   <si>
     <t>Basic table example</t>
   </si>
@@ -138,10 +139,10 @@
     <t>Sum of SUM 2</t>
   </si>
   <si>
-    <t>Months</t>
-  </si>
-  <si>
-    <t>01-Jan</t>
+    <t>Shared formula</t>
+  </si>
+  <si>
+    <t>Specify row number with $ sign</t>
   </si>
 </sst>
 </file>
@@ -517,7 +518,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -699,6 +700,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -744,7 +810,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -827,6 +893,37 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -890,7 +987,7 @@
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -899,36 +996,13 @@
         </right>
         <top/>
         <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -957,9 +1031,8 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -968,8 +1041,6 @@
         </right>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -990,6 +1061,19 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -1001,6 +1085,19 @@
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1083,7 +1180,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1304,6 +1400,30 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1314,7 +1434,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pivot based on ExcelTable'!$C$3</c:f>
+              <c:f>'Pivot based on ExcelTable'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1342,26 +1462,19 @@
             </c:extLst>
           </c:dPt>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'Pivot based on ExcelTable'!$A$4:$B$5</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>'Pivot based on ExcelTable'!$A$4:$A$5</c:f>
+              <c:strCache>
                 <c:ptCount val="1"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>01-Jan</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Date</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>Date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot based on ExcelTable'!$C$4:$C$5</c:f>
+              <c:f>'Pivot based on ExcelTable'!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1382,7 +1495,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pivot based on ExcelTable'!$D$3</c:f>
+              <c:f>'Pivot based on ExcelTable'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1410,26 +1523,19 @@
             </c:extLst>
           </c:dPt>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'Pivot based on ExcelTable'!$A$4:$B$5</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>'Pivot based on ExcelTable'!$A$4:$A$5</c:f>
+              <c:strCache>
                 <c:ptCount val="1"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>01-Jan</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Date</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>Date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot based on ExcelTable'!$D$4:$D$5</c:f>
+              <c:f>'Pivot based on ExcelTable'!$C$4:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1466,7 +1572,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2128,11 +2233,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshOnLoad="1" refreshedBy="Moldabayev, Birzhan" refreshedDate="44019.56553738426" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshOnLoad="1" refreshedBy="Moldabayev, Birzhan" refreshedDate="44073.360896527774" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
-  <cacheFields count="6">
+  <cacheFields count="5">
     <cacheField name="Caption" numFmtId="0">
       <sharedItems count="1">
         <s v="{R-T-CAPTION}"/>
@@ -2142,409 +2247,15 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-01-01T00:00:00" maxDate="2020-01-02T00:00:00" count="1">
-        <d v="2020-01-01T00:00:00"/>
+      <sharedItems count="1">
+        <s v="{R-T-DATE}"/>
       </sharedItems>
-      <fieldGroup par="5" base="2">
-        <rangePr groupBy="days" startDate="2020-01-01T00:00:00" endDate="2020-01-02T00:00:00"/>
-        <groupItems count="368">
-          <s v="&lt;01/01/2020"/>
-          <s v="01-Jan"/>
-          <s v="02-Jan"/>
-          <s v="03-Jan"/>
-          <s v="04-Jan"/>
-          <s v="05-Jan"/>
-          <s v="06-Jan"/>
-          <s v="07-Jan"/>
-          <s v="08-Jan"/>
-          <s v="09-Jan"/>
-          <s v="10-Jan"/>
-          <s v="11-Jan"/>
-          <s v="12-Jan"/>
-          <s v="13-Jan"/>
-          <s v="14-Jan"/>
-          <s v="15-Jan"/>
-          <s v="16-Jan"/>
-          <s v="17-Jan"/>
-          <s v="18-Jan"/>
-          <s v="19-Jan"/>
-          <s v="20-Jan"/>
-          <s v="21-Jan"/>
-          <s v="22-Jan"/>
-          <s v="23-Jan"/>
-          <s v="24-Jan"/>
-          <s v="25-Jan"/>
-          <s v="26-Jan"/>
-          <s v="27-Jan"/>
-          <s v="28-Jan"/>
-          <s v="29-Jan"/>
-          <s v="30-Jan"/>
-          <s v="31-Jan"/>
-          <s v="01-Feb"/>
-          <s v="02-Feb"/>
-          <s v="03-Feb"/>
-          <s v="04-Feb"/>
-          <s v="05-Feb"/>
-          <s v="06-Feb"/>
-          <s v="07-Feb"/>
-          <s v="08-Feb"/>
-          <s v="09-Feb"/>
-          <s v="10-Feb"/>
-          <s v="11-Feb"/>
-          <s v="12-Feb"/>
-          <s v="13-Feb"/>
-          <s v="14-Feb"/>
-          <s v="15-Feb"/>
-          <s v="16-Feb"/>
-          <s v="17-Feb"/>
-          <s v="18-Feb"/>
-          <s v="19-Feb"/>
-          <s v="20-Feb"/>
-          <s v="21-Feb"/>
-          <s v="22-Feb"/>
-          <s v="23-Feb"/>
-          <s v="24-Feb"/>
-          <s v="25-Feb"/>
-          <s v="26-Feb"/>
-          <s v="27-Feb"/>
-          <s v="28-Feb"/>
-          <s v="29-Feb"/>
-          <s v="01-Mar"/>
-          <s v="02-Mar"/>
-          <s v="03-Mar"/>
-          <s v="04-Mar"/>
-          <s v="05-Mar"/>
-          <s v="06-Mar"/>
-          <s v="07-Mar"/>
-          <s v="08-Mar"/>
-          <s v="09-Mar"/>
-          <s v="10-Mar"/>
-          <s v="11-Mar"/>
-          <s v="12-Mar"/>
-          <s v="13-Mar"/>
-          <s v="14-Mar"/>
-          <s v="15-Mar"/>
-          <s v="16-Mar"/>
-          <s v="17-Mar"/>
-          <s v="18-Mar"/>
-          <s v="19-Mar"/>
-          <s v="20-Mar"/>
-          <s v="21-Mar"/>
-          <s v="22-Mar"/>
-          <s v="23-Mar"/>
-          <s v="24-Mar"/>
-          <s v="25-Mar"/>
-          <s v="26-Mar"/>
-          <s v="27-Mar"/>
-          <s v="28-Mar"/>
-          <s v="29-Mar"/>
-          <s v="30-Mar"/>
-          <s v="31-Mar"/>
-          <s v="01-Apr"/>
-          <s v="02-Apr"/>
-          <s v="03-Apr"/>
-          <s v="04-Apr"/>
-          <s v="05-Apr"/>
-          <s v="06-Apr"/>
-          <s v="07-Apr"/>
-          <s v="08-Apr"/>
-          <s v="09-Apr"/>
-          <s v="10-Apr"/>
-          <s v="11-Apr"/>
-          <s v="12-Apr"/>
-          <s v="13-Apr"/>
-          <s v="14-Apr"/>
-          <s v="15-Apr"/>
-          <s v="16-Apr"/>
-          <s v="17-Apr"/>
-          <s v="18-Apr"/>
-          <s v="19-Apr"/>
-          <s v="20-Apr"/>
-          <s v="21-Apr"/>
-          <s v="22-Apr"/>
-          <s v="23-Apr"/>
-          <s v="24-Apr"/>
-          <s v="25-Apr"/>
-          <s v="26-Apr"/>
-          <s v="27-Apr"/>
-          <s v="28-Apr"/>
-          <s v="29-Apr"/>
-          <s v="30-Apr"/>
-          <s v="01-May"/>
-          <s v="02-May"/>
-          <s v="03-May"/>
-          <s v="04-May"/>
-          <s v="05-May"/>
-          <s v="06-May"/>
-          <s v="07-May"/>
-          <s v="08-May"/>
-          <s v="09-May"/>
-          <s v="10-May"/>
-          <s v="11-May"/>
-          <s v="12-May"/>
-          <s v="13-May"/>
-          <s v="14-May"/>
-          <s v="15-May"/>
-          <s v="16-May"/>
-          <s v="17-May"/>
-          <s v="18-May"/>
-          <s v="19-May"/>
-          <s v="20-May"/>
-          <s v="21-May"/>
-          <s v="22-May"/>
-          <s v="23-May"/>
-          <s v="24-May"/>
-          <s v="25-May"/>
-          <s v="26-May"/>
-          <s v="27-May"/>
-          <s v="28-May"/>
-          <s v="29-May"/>
-          <s v="30-May"/>
-          <s v="31-May"/>
-          <s v="01-Jun"/>
-          <s v="02-Jun"/>
-          <s v="03-Jun"/>
-          <s v="04-Jun"/>
-          <s v="05-Jun"/>
-          <s v="06-Jun"/>
-          <s v="07-Jun"/>
-          <s v="08-Jun"/>
-          <s v="09-Jun"/>
-          <s v="10-Jun"/>
-          <s v="11-Jun"/>
-          <s v="12-Jun"/>
-          <s v="13-Jun"/>
-          <s v="14-Jun"/>
-          <s v="15-Jun"/>
-          <s v="16-Jun"/>
-          <s v="17-Jun"/>
-          <s v="18-Jun"/>
-          <s v="19-Jun"/>
-          <s v="20-Jun"/>
-          <s v="21-Jun"/>
-          <s v="22-Jun"/>
-          <s v="23-Jun"/>
-          <s v="24-Jun"/>
-          <s v="25-Jun"/>
-          <s v="26-Jun"/>
-          <s v="27-Jun"/>
-          <s v="28-Jun"/>
-          <s v="29-Jun"/>
-          <s v="30-Jun"/>
-          <s v="01-Jul"/>
-          <s v="02-Jul"/>
-          <s v="03-Jul"/>
-          <s v="04-Jul"/>
-          <s v="05-Jul"/>
-          <s v="06-Jul"/>
-          <s v="07-Jul"/>
-          <s v="08-Jul"/>
-          <s v="09-Jul"/>
-          <s v="10-Jul"/>
-          <s v="11-Jul"/>
-          <s v="12-Jul"/>
-          <s v="13-Jul"/>
-          <s v="14-Jul"/>
-          <s v="15-Jul"/>
-          <s v="16-Jul"/>
-          <s v="17-Jul"/>
-          <s v="18-Jul"/>
-          <s v="19-Jul"/>
-          <s v="20-Jul"/>
-          <s v="21-Jul"/>
-          <s v="22-Jul"/>
-          <s v="23-Jul"/>
-          <s v="24-Jul"/>
-          <s v="25-Jul"/>
-          <s v="26-Jul"/>
-          <s v="27-Jul"/>
-          <s v="28-Jul"/>
-          <s v="29-Jul"/>
-          <s v="30-Jul"/>
-          <s v="31-Jul"/>
-          <s v="01-Aug"/>
-          <s v="02-Aug"/>
-          <s v="03-Aug"/>
-          <s v="04-Aug"/>
-          <s v="05-Aug"/>
-          <s v="06-Aug"/>
-          <s v="07-Aug"/>
-          <s v="08-Aug"/>
-          <s v="09-Aug"/>
-          <s v="10-Aug"/>
-          <s v="11-Aug"/>
-          <s v="12-Aug"/>
-          <s v="13-Aug"/>
-          <s v="14-Aug"/>
-          <s v="15-Aug"/>
-          <s v="16-Aug"/>
-          <s v="17-Aug"/>
-          <s v="18-Aug"/>
-          <s v="19-Aug"/>
-          <s v="20-Aug"/>
-          <s v="21-Aug"/>
-          <s v="22-Aug"/>
-          <s v="23-Aug"/>
-          <s v="24-Aug"/>
-          <s v="25-Aug"/>
-          <s v="26-Aug"/>
-          <s v="27-Aug"/>
-          <s v="28-Aug"/>
-          <s v="29-Aug"/>
-          <s v="30-Aug"/>
-          <s v="31-Aug"/>
-          <s v="01-Sep"/>
-          <s v="02-Sep"/>
-          <s v="03-Sep"/>
-          <s v="04-Sep"/>
-          <s v="05-Sep"/>
-          <s v="06-Sep"/>
-          <s v="07-Sep"/>
-          <s v="08-Sep"/>
-          <s v="09-Sep"/>
-          <s v="10-Sep"/>
-          <s v="11-Sep"/>
-          <s v="12-Sep"/>
-          <s v="13-Sep"/>
-          <s v="14-Sep"/>
-          <s v="15-Sep"/>
-          <s v="16-Sep"/>
-          <s v="17-Sep"/>
-          <s v="18-Sep"/>
-          <s v="19-Sep"/>
-          <s v="20-Sep"/>
-          <s v="21-Sep"/>
-          <s v="22-Sep"/>
-          <s v="23-Sep"/>
-          <s v="24-Sep"/>
-          <s v="25-Sep"/>
-          <s v="26-Sep"/>
-          <s v="27-Sep"/>
-          <s v="28-Sep"/>
-          <s v="29-Sep"/>
-          <s v="30-Sep"/>
-          <s v="01-Oct"/>
-          <s v="02-Oct"/>
-          <s v="03-Oct"/>
-          <s v="04-Oct"/>
-          <s v="05-Oct"/>
-          <s v="06-Oct"/>
-          <s v="07-Oct"/>
-          <s v="08-Oct"/>
-          <s v="09-Oct"/>
-          <s v="10-Oct"/>
-          <s v="11-Oct"/>
-          <s v="12-Oct"/>
-          <s v="13-Oct"/>
-          <s v="14-Oct"/>
-          <s v="15-Oct"/>
-          <s v="16-Oct"/>
-          <s v="17-Oct"/>
-          <s v="18-Oct"/>
-          <s v="19-Oct"/>
-          <s v="20-Oct"/>
-          <s v="21-Oct"/>
-          <s v="22-Oct"/>
-          <s v="23-Oct"/>
-          <s v="24-Oct"/>
-          <s v="25-Oct"/>
-          <s v="26-Oct"/>
-          <s v="27-Oct"/>
-          <s v="28-Oct"/>
-          <s v="29-Oct"/>
-          <s v="30-Oct"/>
-          <s v="31-Oct"/>
-          <s v="01-Nov"/>
-          <s v="02-Nov"/>
-          <s v="03-Nov"/>
-          <s v="04-Nov"/>
-          <s v="05-Nov"/>
-          <s v="06-Nov"/>
-          <s v="07-Nov"/>
-          <s v="08-Nov"/>
-          <s v="09-Nov"/>
-          <s v="10-Nov"/>
-          <s v="11-Nov"/>
-          <s v="12-Nov"/>
-          <s v="13-Nov"/>
-          <s v="14-Nov"/>
-          <s v="15-Nov"/>
-          <s v="16-Nov"/>
-          <s v="17-Nov"/>
-          <s v="18-Nov"/>
-          <s v="19-Nov"/>
-          <s v="20-Nov"/>
-          <s v="21-Nov"/>
-          <s v="22-Nov"/>
-          <s v="23-Nov"/>
-          <s v="24-Nov"/>
-          <s v="25-Nov"/>
-          <s v="26-Nov"/>
-          <s v="27-Nov"/>
-          <s v="28-Nov"/>
-          <s v="29-Nov"/>
-          <s v="30-Nov"/>
-          <s v="01-Dec"/>
-          <s v="02-Dec"/>
-          <s v="03-Dec"/>
-          <s v="04-Dec"/>
-          <s v="05-Dec"/>
-          <s v="06-Dec"/>
-          <s v="07-Dec"/>
-          <s v="08-Dec"/>
-          <s v="09-Dec"/>
-          <s v="10-Dec"/>
-          <s v="11-Dec"/>
-          <s v="12-Dec"/>
-          <s v="13-Dec"/>
-          <s v="14-Dec"/>
-          <s v="15-Dec"/>
-          <s v="16-Dec"/>
-          <s v="17-Dec"/>
-          <s v="18-Dec"/>
-          <s v="19-Dec"/>
-          <s v="20-Dec"/>
-          <s v="21-Dec"/>
-          <s v="22-Dec"/>
-          <s v="23-Dec"/>
-          <s v="24-Dec"/>
-          <s v="25-Dec"/>
-          <s v="26-Dec"/>
-          <s v="27-Dec"/>
-          <s v="28-Dec"/>
-          <s v="29-Dec"/>
-          <s v="30-Dec"/>
-          <s v="31-Dec"/>
-          <s v="&gt;02/01/2020"/>
-        </groupItems>
-      </fieldGroup>
     </cacheField>
     <cacheField name="SUM 1" numFmtId="4">
       <sharedItems/>
     </cacheField>
     <cacheField name="SUM 2" numFmtId="4">
       <sharedItems/>
-    </cacheField>
-    <cacheField name="Months" numFmtId="0" databaseField="0">
-      <fieldGroup base="2">
-        <rangePr groupBy="months" startDate="2020-01-01T00:00:00" endDate="2020-01-02T00:00:00"/>
-        <groupItems count="14">
-          <s v="&lt;01/01/2020"/>
-          <s v="Jan"/>
-          <s v="Feb"/>
-          <s v="Mar"/>
-          <s v="Apr"/>
-          <s v="May"/>
-          <s v="Jun"/>
-          <s v="Jul"/>
-          <s v="Aug"/>
-          <s v="Sep"/>
-          <s v="Oct"/>
-          <s v="Nov"/>
-          <s v="Dec"/>
-          <s v="&gt;02/01/2020"/>
-        </groupItems>
-      </fieldGroup>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2556,9 +2267,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
-  <location ref="A3:D5" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+  <location ref="A3:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="5">
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
       <items count="2">
         <item x="0"/>
@@ -2567,407 +2278,20 @@
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
+      <items count="2">
+        <item n="Date" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item x="0"/>
-        <item n="Date" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-      </items>
-    </pivotField>
   </pivotFields>
-  <rowFields count="2">
-    <field x="5"/>
+  <rowFields count="1">
     <field x="2"/>
   </rowFields>
   <rowItems count="2">
     <i>
-      <x v="1"/>
-      <x v="1"/>
+      <x/>
     </i>
     <i t="grand">
       <x/>
@@ -2991,7 +2315,7 @@
     <dataField name="Sum of SUM 1" fld="3" baseField="2" baseItem="0"/>
     <dataField name="Sum of SUM 2" fld="4" baseField="2" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="4">
     <chartFormat chart="0" format="11" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -3010,6 +2334,30 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -3024,11 +2372,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:F6" totalsRowCount="1" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
   <autoFilter ref="B4:F5"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Caption" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="Group" dataDxfId="8" totalsRowDxfId="3"/>
-    <tableColumn id="3" name="Date" dataDxfId="7" totalsRowDxfId="2"/>
-    <tableColumn id="4" name="SUM 1" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="1"/>
-    <tableColumn id="5" name="SUM 2" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Caption" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" name="Group" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="3" name="Date" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="4" name="SUM 1" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="5" name="SUM 2" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3333,7 +2681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+    <sheetView topLeftCell="B5" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -3426,7 +2774,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3508,7 +2856,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -3517,12 +2865,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
@@ -3530,42 +2878,36 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="32" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
       <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>35</v>
+      <c r="B4" s="33">
+        <v>0</v>
       </c>
       <c r="C4" s="33">
         <v>0</v>
       </c>
-      <c r="D4" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
+      <c r="B5" s="33">
+        <v>0</v>
+      </c>
       <c r="C5" s="33">
-        <v>0</v>
-      </c>
-      <c r="D5" s="33">
         <v>0</v>
       </c>
     </row>
@@ -3577,10 +2919,102 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="6" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="38" t="e">
+        <f>D$5+E$5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G5" s="39">
+        <f>ROW(G$4)</f>
+        <v>4</v>
+      </c>
+      <c r="H5" s="39">
+        <f t="shared" ref="H5:I5" si="0">ROW(H$4)</f>
+        <v>4</v>
+      </c>
+      <c r="I5" s="39">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G4:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F5" evalError="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3680,7 +3114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -3784,7 +3218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>

--- a/src/demo/zxxt_02_excel_xlsx.w3mi.data.xlsx
+++ b/src/demo/zxxt_02_excel_xlsx.w3mi.data.xlsx
@@ -518,7 +518,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -765,6 +765,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -810,7 +821,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -922,6 +933,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2233,7 +2247,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshOnLoad="1" refreshedBy="Moldabayev, Birzhan" refreshedDate="44073.360896527774" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshOnLoad="1" refreshedBy="Moldabayev, Birzhan" refreshedDate="44078.483025810187" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -2919,10 +2933,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I5"/>
+  <dimension ref="A2:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2930,16 +2944,16 @@
     <col min="1" max="1" width="40.28515625" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="6" width="12.28515625" customWidth="1"/>
+    <col min="4" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>1</v>
       </c>
@@ -2958,13 +2972,14 @@
       <c r="F4" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="45"/>
+      <c r="H4" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="43"/>
+      <c r="J4" s="44"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
@@ -2984,22 +2999,26 @@
         <f>D$5+E$5</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G5" s="39">
-        <f>ROW(G$4)</f>
+      <c r="G5" s="38" t="e">
+        <f>D5+E5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H5" s="39">
+        <f>ROW(H$4)</f>
         <v>4</v>
       </c>
-      <c r="H5" s="39">
-        <f t="shared" ref="H5:I5" si="0">ROW(H$4)</f>
+      <c r="I5" s="39">
+        <f t="shared" ref="I5:J5" si="0">ROW(I$4)</f>
         <v>4</v>
       </c>
-      <c r="I5" s="39">
+      <c r="J5" s="39">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
